--- a/doc/AASP_description_data.xlsx
+++ b/doc/AASP_description_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{2D032CC8-5545-4FD3-8477-DB7E537A9024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{409E78BC-23B8-4887-8559-B5CCC9A74D37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="9" r:id="rId1"/>
@@ -2938,7 +2938,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A207" sqref="A207:XFD207"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
